--- a/Team-Data/2010-11/3-25-2010-11.xlsx
+++ b/Team-Data/2010-11/3-25-2010-11.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
         <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>0.549</v>
+        <v>0.556</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J2" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L2" t="n">
         <v>6.4</v>
@@ -696,22 +763,22 @@
         <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O2" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="P2" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.777</v>
+        <v>0.779</v>
       </c>
       <c r="R2" t="n">
         <v>9.4</v>
       </c>
       <c r="S2" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T2" t="n">
         <v>39.5</v>
@@ -732,28 +799,28 @@
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>28</v>
@@ -765,10 +832,10 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM2" t="n">
         <v>16</v>
@@ -780,10 +847,10 @@
         <v>29</v>
       </c>
       <c r="AP2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
@@ -795,28 +862,28 @@
         <v>26</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW2" t="n">
         <v>29</v>
       </c>
       <c r="AX2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>8</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
         <v>30</v>
       </c>
       <c r="BB2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.71</v>
+        <v>0.714</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -866,10 +933,10 @@
         <v>37.1</v>
       </c>
       <c r="J3" t="n">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.487</v>
       </c>
       <c r="L3" t="n">
         <v>5.1</v>
@@ -878,37 +945,37 @@
         <v>13.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.365</v>
+        <v>0.368</v>
       </c>
       <c r="O3" t="n">
         <v>17.7</v>
       </c>
       <c r="P3" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R3" t="n">
         <v>7.9</v>
       </c>
       <c r="S3" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T3" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="U3" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="V3" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y3" t="n">
         <v>4.4</v>
@@ -923,10 +990,10 @@
         <v>97</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>4</v>
@@ -941,7 +1008,7 @@
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -956,16 +1023,16 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AP3" t="n">
         <v>24</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -977,31 +1044,31 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AY3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB3" t="n">
         <v>21</v>
       </c>
       <c r="BC3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -1033,13 +1100,13 @@
         <v>70</v>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>0.414</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
@@ -1051,16 +1118,16 @@
         <v>77.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.326</v>
+        <v>0.329</v>
       </c>
       <c r="O4" t="n">
         <v>18.8</v>
@@ -1069,22 +1136,22 @@
         <v>25</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R4" t="n">
         <v>10.7</v>
       </c>
       <c r="S4" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T4" t="n">
         <v>40.9</v>
       </c>
       <c r="U4" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V4" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W4" t="n">
         <v>6.4</v>
@@ -1096,19 +1163,19 @@
         <v>6.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB4" t="n">
         <v>92.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1132,16 +1199,16 @@
         <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM4" t="n">
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>10</v>
@@ -1159,31 +1226,31 @@
         <v>18</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -1215,22 +1282,22 @@
         <v>70</v>
       </c>
       <c r="E5" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>0.743</v>
+        <v>0.729</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J5" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K5" t="n">
         <v>0.46</v>
@@ -1239,28 +1306,28 @@
         <v>6.3</v>
       </c>
       <c r="M5" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
       <c r="O5" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.736</v>
+        <v>0.733</v>
       </c>
       <c r="R5" t="n">
         <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T5" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U5" t="n">
         <v>22</v>
@@ -1281,16 +1348,16 @@
         <v>20.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
         <v>2</v>
@@ -1305,61 +1372,61 @@
         <v>10</v>
       </c>
       <c r="AI5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>17</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>16</v>
       </c>
-      <c r="AK5" t="n">
-        <v>17</v>
-      </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM5" t="n">
         <v>17</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT5" t="n">
         <v>2</v>
       </c>
       <c r="AU5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW5" t="n">
         <v>18</v>
       </c>
       <c r="AX5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1476,7 @@
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J6" t="n">
         <v>81.40000000000001</v>
@@ -1421,13 +1488,13 @@
         <v>6.2</v>
       </c>
       <c r="M6" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N6" t="n">
         <v>0.344</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P6" t="n">
         <v>25.2</v>
@@ -1436,16 +1503,16 @@
         <v>0.743</v>
       </c>
       <c r="R6" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S6" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T6" t="n">
-        <v>40.5</v>
+        <v>40.3</v>
       </c>
       <c r="U6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V6" t="n">
         <v>14.4</v>
@@ -1457,22 +1524,22 @@
         <v>4.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z6" t="n">
         <v>19.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.90000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AC6" t="n">
         <v>-10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>30</v>
@@ -1484,7 +1551,7 @@
         <v>30</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
         <v>28</v>
@@ -1514,13 +1581,13 @@
         <v>25</v>
       </c>
       <c r="AR6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS6" t="n">
         <v>23</v>
       </c>
       <c r="AT6" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AU6" t="n">
         <v>17</v>
@@ -1535,13 +1602,13 @@
         <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ6" t="n">
         <v>8</v>
       </c>
       <c r="BA6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB6" t="n">
         <v>27</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
         <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7</v>
+        <v>0.704</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J7" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M7" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O7" t="n">
         <v>17.5</v>
@@ -1621,7 +1688,7 @@
         <v>9.4</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
         <v>41.2</v>
@@ -1630,7 +1697,7 @@
         <v>23.8</v>
       </c>
       <c r="V7" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W7" t="n">
         <v>6.6</v>
@@ -1651,10 +1718,10 @@
         <v>100.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
@@ -1672,7 +1739,7 @@
         <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
         <v>3</v>
@@ -1687,13 +1754,13 @@
         <v>8</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR7" t="n">
         <v>29</v>
@@ -1705,7 +1772,7 @@
         <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV7" t="n">
         <v>11</v>
@@ -1714,13 +1781,13 @@
         <v>25</v>
       </c>
       <c r="AX7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AY7" t="n">
         <v>2</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -1773,31 +1840,31 @@
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J8" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M8" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.392</v>
+        <v>0.39</v>
       </c>
       <c r="O8" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="P8" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R8" t="n">
         <v>9.5</v>
@@ -1809,25 +1876,25 @@
         <v>41.8</v>
       </c>
       <c r="U8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V8" t="n">
         <v>14</v>
       </c>
       <c r="W8" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y8" t="n">
         <v>6</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB8" t="n">
         <v>107.6</v>
@@ -1836,7 +1903,7 @@
         <v>4.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1851,7 +1918,7 @@
         <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
         <v>22</v>
@@ -1878,31 +1945,31 @@
         <v>10</v>
       </c>
       <c r="AR8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>13</v>
       </c>
       <c r="AU8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX8" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -1958,10 +2025,10 @@
         <v>36.9</v>
       </c>
       <c r="J9" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L9" t="n">
         <v>5.9</v>
@@ -1970,16 +2037,16 @@
         <v>15.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="O9" t="n">
         <v>16.4</v>
       </c>
       <c r="P9" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.734</v>
+        <v>0.731</v>
       </c>
       <c r="R9" t="n">
         <v>11.3</v>
@@ -1988,13 +2055,13 @@
         <v>27</v>
       </c>
       <c r="T9" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="U9" t="n">
         <v>20.9</v>
       </c>
       <c r="V9" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W9" t="n">
         <v>7.1</v>
@@ -2012,13 +2079,13 @@
         <v>18.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC9" t="n">
         <v>-4.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2033,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="AI9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
         <v>14</v>
@@ -2042,7 +2109,7 @@
         <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
         <v>21</v>
@@ -2054,16 +2121,16 @@
         <v>28</v>
       </c>
       <c r="AP9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>28</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>27</v>
       </c>
       <c r="AR9" t="n">
         <v>12</v>
       </c>
       <c r="AS9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT9" t="n">
         <v>30</v>
@@ -2087,13 +2154,13 @@
         <v>7</v>
       </c>
       <c r="BA9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB9" t="n">
         <v>24</v>
       </c>
       <c r="BC9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2207,7 @@
         <v>39.3</v>
       </c>
       <c r="J10" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.461</v>
@@ -2152,34 +2219,34 @@
         <v>21.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.393</v>
+        <v>0.39</v>
       </c>
       <c r="O10" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P10" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R10" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S10" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="T10" t="n">
         <v>40.2</v>
       </c>
       <c r="U10" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X10" t="n">
         <v>4.8</v>
@@ -2188,25 +2255,25 @@
         <v>4.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA10" t="n">
         <v>18.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.1</v>
+        <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
         <v>20</v>
@@ -2221,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>5</v>
@@ -2236,19 +2303,19 @@
         <v>30</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ10" t="n">
         <v>20</v>
       </c>
       <c r="AR10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -2263,10 +2330,10 @@
         <v>15</v>
       </c>
       <c r="AY10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA10" t="n">
         <v>29</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11" t="n">
         <v>38</v>
       </c>
       <c r="F11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" t="n">
-        <v>0.543</v>
+        <v>0.528</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2322,46 +2389,46 @@
         <v>38.5</v>
       </c>
       <c r="J11" t="n">
-        <v>84.59999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="K11" t="n">
         <v>0.454</v>
       </c>
       <c r="L11" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="N11" t="n">
         <v>0.367</v>
       </c>
       <c r="O11" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="P11" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.794</v>
+        <v>0.797</v>
       </c>
       <c r="R11" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S11" t="n">
         <v>30.9</v>
       </c>
       <c r="T11" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U11" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V11" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W11" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X11" t="n">
         <v>4.7</v>
@@ -2370,37 +2437,37 @@
         <v>5.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>105.4</v>
+        <v>105.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
         <v>5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK11" t="n">
         <v>21</v>
@@ -2412,25 +2479,25 @@
         <v>4</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP11" t="n">
         <v>5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>7</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS11" t="n">
         <v>13</v>
       </c>
       <c r="AT11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU11" t="n">
         <v>5</v>
@@ -2439,10 +2506,10 @@
         <v>6</v>
       </c>
       <c r="AW11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX11" t="n">
         <v>17</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>18</v>
       </c>
       <c r="AY11" t="n">
         <v>23</v>
@@ -2454,7 +2521,7 @@
         <v>7</v>
       </c>
       <c r="BB11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -2501,49 +2568,49 @@
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J12" t="n">
-        <v>82.90000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="L12" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M12" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.351</v>
+        <v>0.355</v>
       </c>
       <c r="O12" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P12" t="n">
         <v>24.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.789</v>
+        <v>0.786</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="S12" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T12" t="n">
-        <v>44</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V12" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X12" t="n">
         <v>5.6</v>
@@ -2552,19 +2619,19 @@
         <v>5.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
         <v>21.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
@@ -2582,10 +2649,10 @@
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>10</v>
@@ -2594,7 +2661,7 @@
         <v>9</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
         <v>7</v>
@@ -2609,16 +2676,16 @@
         <v>14</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
         <v>29</v>
       </c>
       <c r="AV12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW12" t="n">
         <v>21</v>
@@ -2627,7 +2694,7 @@
         <v>6</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>22</v>
@@ -2636,10 +2703,10 @@
         <v>8</v>
       </c>
       <c r="BB12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -2683,13 +2750,13 @@
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J13" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L13" t="n">
         <v>6.4</v>
@@ -2698,28 +2765,28 @@
         <v>18.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O13" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P13" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.711</v>
+        <v>0.709</v>
       </c>
       <c r="R13" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S13" t="n">
         <v>30.4</v>
       </c>
       <c r="T13" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U13" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V13" t="n">
         <v>16.2</v>
@@ -2734,22 +2801,22 @@
         <v>4.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA13" t="n">
         <v>22.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>-2.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
         <v>23</v>
@@ -2758,7 +2825,7 @@
         <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
         <v>21</v>
@@ -2767,7 +2834,7 @@
         <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
         <v>13</v>
@@ -2788,13 +2855,13 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS13" t="n">
         <v>16</v>
       </c>
       <c r="AT13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU13" t="n">
         <v>10</v>
@@ -2806,13 +2873,13 @@
         <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
         <v>2</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -2865,31 +2932,31 @@
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J14" t="n">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L14" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M14" t="n">
         <v>18.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O14" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P14" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.783</v>
+        <v>0.785</v>
       </c>
       <c r="R14" t="n">
         <v>12.2</v>
@@ -2898,25 +2965,25 @@
         <v>31.6</v>
       </c>
       <c r="T14" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U14" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V14" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W14" t="n">
         <v>7.4</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y14" t="n">
         <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA14" t="n">
         <v>20.6</v>
@@ -2925,13 +2992,13 @@
         <v>101.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI14" t="n">
         <v>6</v>
@@ -2958,25 +3025,25 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS14" t="n">
         <v>9</v>
       </c>
       <c r="AT14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>12</v>
@@ -2988,10 +3055,10 @@
         <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
         <v>2</v>
@@ -3000,7 +3067,7 @@
         <v>18</v>
       </c>
       <c r="BB14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -3047,10 +3114,10 @@
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J15" t="n">
-        <v>83.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K15" t="n">
         <v>0.468</v>
@@ -3059,31 +3126,31 @@
         <v>3.7</v>
       </c>
       <c r="M15" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.324</v>
+        <v>0.329</v>
       </c>
       <c r="O15" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P15" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R15" t="n">
         <v>11.8</v>
       </c>
       <c r="S15" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T15" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U15" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V15" t="n">
         <v>13.9</v>
@@ -3092,28 +3159,28 @@
         <v>9.4</v>
       </c>
       <c r="X15" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
         <v>21.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD15" t="n">
         <v>2</v>
       </c>
-      <c r="AD15" t="n">
-        <v>1</v>
-      </c>
       <c r="AE15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
         <v>12</v>
@@ -3140,13 +3207,13 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO15" t="n">
         <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
@@ -3158,10 +3225,10 @@
         <v>24</v>
       </c>
       <c r="AT15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
         <v>13</v>
@@ -3170,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY15" t="n">
         <v>30</v>
@@ -3179,7 +3246,7 @@
         <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BB15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" t="n">
         <v>49</v>
       </c>
       <c r="F16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="J16" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L16" t="n">
         <v>6.6</v>
@@ -3244,7 +3311,7 @@
         <v>18</v>
       </c>
       <c r="N16" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O16" t="n">
         <v>21.5</v>
@@ -3253,19 +3320,19 @@
         <v>27.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R16" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="S16" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T16" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U16" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="V16" t="n">
         <v>13.7</v>
@@ -3283,31 +3350,31 @@
         <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>102</v>
+        <v>101.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -3322,7 +3389,7 @@
         <v>15</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO16" t="n">
         <v>3</v>
@@ -3331,28 +3398,28 @@
         <v>3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AU16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW16" t="n">
         <v>24</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY16" t="n">
         <v>1</v>
@@ -3364,7 +3431,7 @@
         <v>5</v>
       </c>
       <c r="BB16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC16" t="n">
         <v>2</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -3399,43 +3466,43 @@
         <v>70</v>
       </c>
       <c r="E17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" t="n">
-        <v>0.414</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="J17" t="n">
         <v>79.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.429</v>
+        <v>0.427</v>
       </c>
       <c r="L17" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M17" t="n">
         <v>17</v>
       </c>
       <c r="N17" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O17" t="n">
         <v>17.4</v>
       </c>
       <c r="P17" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.751</v>
+        <v>0.748</v>
       </c>
       <c r="R17" t="n">
         <v>10.8</v>
@@ -3447,13 +3514,13 @@
         <v>41.1</v>
       </c>
       <c r="U17" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="V17" t="n">
         <v>13.6</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X17" t="n">
         <v>4.9</v>
@@ -3462,19 +3529,19 @@
         <v>4.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>91.59999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3504,10 +3571,10 @@
         <v>18</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP17" t="n">
         <v>23</v>
@@ -3516,10 +3583,10 @@
         <v>23</v>
       </c>
       <c r="AR17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT17" t="n">
         <v>16</v>
@@ -3531,7 +3598,7 @@
         <v>8</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
         <v>12</v>
@@ -3540,10 +3607,10 @@
         <v>18</v>
       </c>
       <c r="AZ17" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA17" t="n">
         <v>15</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -3596,7 +3663,7 @@
         <v>37.6</v>
       </c>
       <c r="J18" t="n">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="K18" t="n">
         <v>0.438</v>
@@ -3605,34 +3672,34 @@
         <v>7.2</v>
       </c>
       <c r="M18" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O18" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P18" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R18" t="n">
         <v>13.7</v>
       </c>
       <c r="S18" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T18" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U18" t="n">
         <v>20.3</v>
       </c>
       <c r="V18" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="W18" t="n">
         <v>7.3</v>
@@ -3644,19 +3711,19 @@
         <v>5.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>101.1</v>
+        <v>101.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-5.9</v>
+        <v>-5.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3671,13 +3738,13 @@
         <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL18" t="n">
         <v>9</v>
@@ -3689,10 +3756,10 @@
         <v>6</v>
       </c>
       <c r="AO18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ18" t="n">
         <v>15</v>
@@ -3716,16 +3783,16 @@
         <v>15</v>
       </c>
       <c r="AX18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY18" t="n">
         <v>24</v>
       </c>
       <c r="AZ18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -3763,82 +3830,82 @@
         <v>70</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" t="n">
-        <v>0.314</v>
+        <v>0.329</v>
       </c>
       <c r="H19" t="n">
         <v>48.9</v>
       </c>
       <c r="I19" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J19" t="n">
         <v>80.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O19" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P19" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R19" t="n">
         <v>11.3</v>
       </c>
       <c r="S19" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T19" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U19" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V19" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W19" t="n">
         <v>5.3</v>
       </c>
       <c r="X19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y19" t="n">
         <v>4.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.6</v>
+        <v>-5.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>25</v>
@@ -3856,7 +3923,7 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3868,13 +3935,13 @@
         <v>20</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AQ19" t="n">
         <v>18</v>
@@ -3883,7 +3950,7 @@
         <v>13</v>
       </c>
       <c r="AS19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT19" t="n">
         <v>14</v>
@@ -3892,28 +3959,28 @@
         <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AW19" t="n">
         <v>30</v>
       </c>
       <c r="AX19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY19" t="n">
         <v>14</v>
       </c>
-      <c r="AY19" t="n">
-        <v>15</v>
-      </c>
       <c r="AZ19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA19" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BB19" t="n">
         <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -3957,13 +4024,13 @@
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J20" t="n">
-        <v>78.2</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L20" t="n">
         <v>5.4</v>
@@ -3972,55 +4039,55 @@
         <v>15.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.36</v>
+        <v>0.357</v>
       </c>
       <c r="O20" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P20" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R20" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S20" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="T20" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U20" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="V20" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W20" t="n">
         <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z20" t="n">
         <v>20.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC20" t="n">
         <v>1.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
         <v>10</v>
@@ -4032,7 +4099,7 @@
         <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
         <v>26</v>
@@ -4041,28 +4108,28 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
         <v>23</v>
       </c>
       <c r="AM20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP20" t="n">
         <v>22</v>
       </c>
       <c r="AQ20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS20" t="n">
         <v>14</v>
@@ -4071,16 +4138,16 @@
         <v>21</v>
       </c>
       <c r="AU20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY20" t="n">
         <v>19</v>
@@ -4092,10 +4159,10 @@
         <v>21</v>
       </c>
       <c r="BB20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -4127,13 +4194,13 @@
         <v>71</v>
       </c>
       <c r="E21" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="n">
-        <v>0.479</v>
+        <v>0.493</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
@@ -4142,49 +4209,49 @@
         <v>38.3</v>
       </c>
       <c r="J21" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K21" t="n">
         <v>0.458</v>
       </c>
       <c r="L21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O21" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P21" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R21" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S21" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="T21" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
         <v>21.5</v>
       </c>
       <c r="V21" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W21" t="n">
         <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y21" t="n">
         <v>4.5</v>
@@ -4196,19 +4263,19 @@
         <v>20.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>18</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
         <v>18</v>
@@ -4223,7 +4290,7 @@
         <v>6</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4235,7 +4302,7 @@
         <v>7</v>
       </c>
       <c r="AO21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP21" t="n">
         <v>9</v>
@@ -4250,22 +4317,22 @@
         <v>21</v>
       </c>
       <c r="AT21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU21" t="n">
         <v>15</v>
       </c>
       <c r="AV21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW21" t="n">
         <v>8</v>
       </c>
       <c r="AX21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -4321,49 +4388,49 @@
         <v>48.8</v>
       </c>
       <c r="I22" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J22" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L22" t="n">
         <v>5.9</v>
       </c>
       <c r="M22" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O22" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="P22" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.823</v>
+        <v>0.824</v>
       </c>
       <c r="R22" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S22" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T22" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U22" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V22" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X22" t="n">
         <v>5.7</v>
@@ -4372,19 +4439,19 @@
         <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
         <v>7</v>
@@ -4402,19 +4469,19 @@
         <v>15</v>
       </c>
       <c r="AJ22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL22" t="n">
         <v>19</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>18</v>
       </c>
       <c r="AM22" t="n">
         <v>19</v>
       </c>
       <c r="AN22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4432,25 +4499,25 @@
         <v>10</v>
       </c>
       <c r="AT22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AV22" t="n">
         <v>12</v>
       </c>
       <c r="AW22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX22" t="n">
         <v>5</v>
       </c>
       <c r="AY22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -4503,13 +4570,13 @@
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J23" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L23" t="n">
         <v>9.4</v>
@@ -4518,55 +4585,55 @@
         <v>25.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O23" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P23" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R23" t="n">
         <v>10.5</v>
       </c>
       <c r="S23" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U23" t="n">
         <v>20.1</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X23" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB23" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>7</v>
@@ -4581,13 +4648,13 @@
         <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,43 +4663,43 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU23" t="n">
         <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AX23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY23" t="n">
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -4685,13 +4752,13 @@
         <v>48.6</v>
       </c>
       <c r="I24" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J24" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L24" t="n">
         <v>5.5</v>
@@ -4703,28 +4770,28 @@
         <v>0.361</v>
       </c>
       <c r="O24" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P24" t="n">
         <v>23</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R24" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S24" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T24" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U24" t="n">
         <v>22.6</v>
       </c>
       <c r="V24" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
@@ -4742,19 +4809,19 @@
         <v>18.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AC24" t="n">
         <v>1.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG24" t="n">
         <v>15</v>
@@ -4766,10 +4833,10 @@
         <v>10</v>
       </c>
       <c r="AJ24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK24" t="n">
         <v>11</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>12</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4781,13 +4848,13 @@
         <v>14</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
         <v>25</v>
       </c>
       <c r="AQ24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR24" t="n">
         <v>21</v>
@@ -4796,34 +4863,34 @@
         <v>7</v>
       </c>
       <c r="AT24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX24" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AY24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA24" t="n">
         <v>27</v>
       </c>
       <c r="BB24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" t="n">
         <v>34</v>
       </c>
       <c r="G25" t="n">
-        <v>0.507</v>
+        <v>0.514</v>
       </c>
       <c r="H25" t="n">
         <v>48.9</v>
@@ -4879,10 +4946,10 @@
         <v>8.9</v>
       </c>
       <c r="M25" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.384</v>
+        <v>0.382</v>
       </c>
       <c r="O25" t="n">
         <v>18.1</v>
@@ -4897,22 +4964,22 @@
         <v>10</v>
       </c>
       <c r="S25" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T25" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U25" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="V25" t="n">
         <v>14.3</v>
       </c>
       <c r="W25" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y25" t="n">
         <v>4.4</v>
@@ -4924,19 +4991,19 @@
         <v>21.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
         <v>16</v>
@@ -4963,46 +5030,46 @@
         <v>4</v>
       </c>
       <c r="AO25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ25" t="n">
         <v>17</v>
       </c>
       <c r="AR25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AX25" t="n">
         <v>25</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>23</v>
       </c>
       <c r="AY25" t="n">
         <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E26" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26" t="n">
         <v>30</v>
       </c>
       <c r="G26" t="n">
-        <v>0.571</v>
+        <v>0.577</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,7 +5119,7 @@
         <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K26" t="n">
         <v>0.447</v>
@@ -5064,58 +5131,58 @@
         <v>18.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.341</v>
+        <v>0.346</v>
       </c>
       <c r="O26" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P26" t="n">
         <v>22.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.801</v>
+        <v>0.8</v>
       </c>
       <c r="R26" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="S26" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="T26" t="n">
-        <v>39.1</v>
+        <v>39.4</v>
       </c>
       <c r="U26" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="V26" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X26" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y26" t="n">
         <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
         <v>10</v>
@@ -5124,40 +5191,40 @@
         <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>25</v>
       </c>
       <c r="AJ26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
         <v>23</v>
       </c>
       <c r="AL26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM26" t="n">
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AO26" t="n">
         <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
         <v>28</v>
@@ -5172,22 +5239,22 @@
         <v>4</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -5231,10 +5298,10 @@
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J27" t="n">
-        <v>84.90000000000001</v>
+        <v>84.7</v>
       </c>
       <c r="K27" t="n">
         <v>0.448</v>
@@ -5243,16 +5310,16 @@
         <v>5.2</v>
       </c>
       <c r="M27" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O27" t="n">
-        <v>17.4</v>
+        <v>17.8</v>
       </c>
       <c r="P27" t="n">
-        <v>23.8</v>
+        <v>24.3</v>
       </c>
       <c r="Q27" t="n">
         <v>0.731</v>
@@ -5261,10 +5328,10 @@
         <v>13.2</v>
       </c>
       <c r="S27" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T27" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="U27" t="n">
         <v>20</v>
@@ -5276,7 +5343,7 @@
         <v>7.3</v>
       </c>
       <c r="X27" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y27" t="n">
         <v>5.4</v>
@@ -5285,16 +5352,16 @@
         <v>22.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.5</v>
+        <v>-5.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5312,7 +5379,7 @@
         <v>11</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK27" t="n">
         <v>22</v>
@@ -5321,28 +5388,28 @@
         <v>25</v>
       </c>
       <c r="AM27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>27</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>28</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
@@ -5354,7 +5421,7 @@
         <v>14</v>
       </c>
       <c r="AX27" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AY27" t="n">
         <v>21</v>
@@ -5363,13 +5430,13 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BB27" t="n">
         <v>19</v>
       </c>
       <c r="BC27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -5401,13 +5468,13 @@
         <v>71</v>
       </c>
       <c r="E28" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.789</v>
+        <v>0.803</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
@@ -5416,7 +5483,7 @@
         <v>38.2</v>
       </c>
       <c r="J28" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K28" t="n">
         <v>0.473</v>
@@ -5431,52 +5498,52 @@
         <v>0.401</v>
       </c>
       <c r="O28" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="P28" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R28" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T28" t="n">
         <v>42</v>
       </c>
       <c r="U28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V28" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z28" t="n">
         <v>18.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.3</v>
+        <v>103.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5491,10 +5558,10 @@
         <v>25</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
@@ -5509,13 +5576,13 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>23</v>
@@ -5524,22 +5591,22 @@
         <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV28" t="n">
         <v>7</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AX28" t="n">
         <v>19</v>
       </c>
       <c r="AY28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5551,7 +5618,7 @@
         <v>6</v>
       </c>
       <c r="BC28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -5598,43 +5665,43 @@
         <v>38.6</v>
       </c>
       <c r="J29" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L29" t="n">
         <v>4.3</v>
       </c>
       <c r="M29" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="N29" t="n">
-        <v>0.316</v>
+        <v>0.314</v>
       </c>
       <c r="O29" t="n">
         <v>17.9</v>
       </c>
       <c r="P29" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R29" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S29" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="U29" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V29" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W29" t="n">
         <v>7.1</v>
@@ -5643,22 +5710,22 @@
         <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z29" t="n">
         <v>22.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-6.4</v>
+        <v>-5.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -5670,13 +5737,13 @@
         <v>26</v>
       </c>
       <c r="AH29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI29" t="n">
         <v>4</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK29" t="n">
         <v>9</v>
@@ -5691,46 +5758,46 @@
         <v>30</v>
       </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
         <v>19</v>
       </c>
       <c r="AR29" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AS29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW29" t="n">
         <v>19</v>
       </c>
       <c r="AX29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
         <v>22</v>
       </c>
       <c r="AZ29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA29" t="n">
         <v>26</v>
       </c>
       <c r="BB29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC29" t="n">
         <v>28</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -5762,61 +5829,61 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E30" t="n">
         <v>36</v>
       </c>
       <c r="F30" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G30" t="n">
-        <v>0.507</v>
+        <v>0.493</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J30" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L30" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M30" t="n">
         <v>15.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.349</v>
+        <v>0.346</v>
       </c>
       <c r="O30" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="P30" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.781</v>
+        <v>0.779</v>
       </c>
       <c r="R30" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S30" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T30" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="U30" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V30" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="W30" t="n">
         <v>7.7</v>
@@ -5828,37 +5895,37 @@
         <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.9</v>
+        <v>-1.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG30" t="n">
         <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
         <v>8</v>
@@ -5879,10 +5946,10 @@
         <v>6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS30" t="n">
         <v>28</v>
@@ -5891,10 +5958,10 @@
         <v>27</v>
       </c>
       <c r="AU30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
         <v>7</v>
@@ -5915,7 +5982,7 @@
         <v>11</v>
       </c>
       <c r="BC30" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
@@ -5959,40 +6026,40 @@
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J31" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.333</v>
+        <v>0.332</v>
       </c>
       <c r="O31" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P31" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.748</v>
+        <v>0.746</v>
       </c>
       <c r="R31" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T31" t="n">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="U31" t="n">
         <v>19.8</v>
@@ -6001,28 +6068,28 @@
         <v>15.4</v>
       </c>
       <c r="W31" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X31" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y31" t="n">
         <v>4.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA31" t="n">
         <v>20.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>96.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-8</v>
+        <v>-8.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6058,34 +6125,34 @@
         <v>24</v>
       </c>
       <c r="AP31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS31" t="n">
         <v>25</v>
       </c>
       <c r="AT31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
       </c>
       <c r="AV31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX31" t="n">
         <v>1</v>
       </c>
       <c r="AY31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ31" t="n">
         <v>29</v>
@@ -6094,7 +6161,7 @@
         <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-25-2010-11</t>
+          <t>2011-03-25</t>
         </is>
       </c>
     </row>
